--- a/CaseAndFatalityDemographicsData/2021-10-15.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-10-15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\10.01.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\10.14.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126485EB-6ED3-4CC3-B627-EC6F9E1E7F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA1A39-9403-4637-8A54-D519D08D032C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6096" yWindow="1488" windowWidth="17280" windowHeight="8994" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" firstSheet="1" activeTab="3" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1165,11 +1165,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.8166129252009629E-4</v>
+        <v>1.9265823910369459E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1177,11 +1177,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.5735349773680304E-4</v>
+        <v>2.6675756183588484E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1189,11 +1189,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>9.6886022677384687E-4</v>
+        <v>1.007750789157787E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1201,11 +1201,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>8.0233737529709186E-3</v>
+        <v>8.1657453650873634E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1213,11 +1213,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>1732</v>
+        <v>1808</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.6219779887067231E-2</v>
+        <v>2.6794315099959987E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1225,11 +1225,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>4399</v>
+        <v>4568</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>6.6594002149658632E-2</v>
+        <v>6.7697141248128992E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1237,11 +1237,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>8525</v>
+        <v>8783</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.12905520989448507</v>
+        <v>0.13016287031136536</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1249,11 +1249,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>6576</v>
+        <v>6755</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.955038830101276E-2</v>
+        <v>0.100108185011189</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1261,11 +1261,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>7931</v>
+        <v>8106</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.1200629759147403</v>
+        <v>0.1201298220134268</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1273,11 +1273,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>8525</v>
+        <v>8687</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12905520989448507</v>
+        <v>0.12874016331490731</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1285,11 +1285,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8155</v>
+        <v>8303</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12345398670844876</v>
+        <v>0.1230493353290751</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1297,11 +1297,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>19591</v>
+        <v>19817</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.2965771984801005</v>
+        <v>0.29368525571676274</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1321,8 +1321,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <f>SUM(B2:B14)</f>
-        <v>66057</v>
+        <v>67477</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1339,7 +1338,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1360,11 +1359,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>27580</v>
+        <v>28183</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41751820397535461</v>
+        <v>0.41766824251226342</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1372,11 +1371,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>38476</v>
+        <v>39293</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58246665758360205</v>
+        <v>0.58231693762319015</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1388,7 +1387,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.5138441043341357E-5</v>
+        <v>1.4819864546438046E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1397,7 +1396,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>66057</v>
+        <v>67477</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1413,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1438,11 +1437,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1246</v>
+        <v>1262</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.8862497540003329E-2</v>
+        <v>1.8702669057604815E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1450,11 +1449,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>6842</v>
+        <v>6990</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10357721361854157</v>
+        <v>0.10359085317960194</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1462,11 +1461,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>29132</v>
+        <v>29670</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.44101306447462041</v>
+        <v>0.43970538109281682</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -1474,11 +1473,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.7374691554263743E-3</v>
+        <v>5.8390266312965903E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1486,11 +1485,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>28420</v>
+        <v>29121</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.43023449445176137</v>
+        <v>0.43156927545682233</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1507,11 +1506,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>5.7526075964697159E-4</v>
+        <v>5.927945818575218E-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1529,7 +1528,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>66057</v>
+        <v>67477</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
